--- a/5/7/Inyección y drene de liquidez en pesos 2021 - Diaria.xlsx
+++ b/5/7/Inyección y drene de liquidez en pesos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>Serie</t>
   </si>
@@ -596,6 +596,21 @@
   </si>
   <si>
     <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
   </si>
 </sst>
 </file>
@@ -953,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4189,6 +4204,91 @@
         <v>-27479</v>
       </c>
     </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191">
+        <v>29164</v>
+      </c>
+      <c r="C191">
+        <v>5357</v>
+      </c>
+      <c r="D191">
+        <v>6903</v>
+      </c>
+      <c r="E191">
+        <v>-27603</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192">
+        <v>29164</v>
+      </c>
+      <c r="C192">
+        <v>5357</v>
+      </c>
+      <c r="D192">
+        <v>6903</v>
+      </c>
+      <c r="E192">
+        <v>-27132</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193">
+        <v>29164</v>
+      </c>
+      <c r="C193">
+        <v>5357</v>
+      </c>
+      <c r="D193">
+        <v>6331</v>
+      </c>
+      <c r="E193">
+        <v>-28020</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194">
+        <v>29164</v>
+      </c>
+      <c r="C194">
+        <v>5357</v>
+      </c>
+      <c r="D194">
+        <v>6331</v>
+      </c>
+      <c r="E194">
+        <v>-27368</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195">
+        <v>29164</v>
+      </c>
+      <c r="C195">
+        <v>5357</v>
+      </c>
+      <c r="D195">
+        <v>6331</v>
+      </c>
+      <c r="E195">
+        <v>-27016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Inyección y drene de liquidez en pesos 2021 - Diaria.xlsx
+++ b/5/7/Inyección y drene de liquidez en pesos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>Serie</t>
   </si>
@@ -611,6 +611,21 @@
   </si>
   <si>
     <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
   </si>
 </sst>
 </file>
@@ -968,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4289,6 +4304,91 @@
         <v>-27016</v>
       </c>
     </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196">
+        <v>29164</v>
+      </c>
+      <c r="C196">
+        <v>5357</v>
+      </c>
+      <c r="D196">
+        <v>6331</v>
+      </c>
+      <c r="E196">
+        <v>-26803</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197">
+        <v>29164</v>
+      </c>
+      <c r="C197">
+        <v>5357</v>
+      </c>
+      <c r="D197">
+        <v>6331</v>
+      </c>
+      <c r="E197">
+        <v>-26500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198">
+        <v>29164</v>
+      </c>
+      <c r="C198">
+        <v>5357</v>
+      </c>
+      <c r="D198">
+        <v>6331</v>
+      </c>
+      <c r="E198">
+        <v>-24898</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199">
+        <v>29164</v>
+      </c>
+      <c r="C199">
+        <v>5357</v>
+      </c>
+      <c r="D199">
+        <v>6331</v>
+      </c>
+      <c r="E199">
+        <v>-24796</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200">
+        <v>29164</v>
+      </c>
+      <c r="C200">
+        <v>5357</v>
+      </c>
+      <c r="D200">
+        <v>6331</v>
+      </c>
+      <c r="E200">
+        <v>-23945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Inyección y drene de liquidez en pesos 2021 - Diaria.xlsx
+++ b/5/7/Inyección y drene de liquidez en pesos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Serie</t>
   </si>
@@ -626,6 +626,33 @@
   </si>
   <si>
     <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4389,6 +4416,159 @@
         <v>-23945</v>
       </c>
     </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201">
+        <v>29164</v>
+      </c>
+      <c r="C201">
+        <v>5357</v>
+      </c>
+      <c r="D201">
+        <v>6331</v>
+      </c>
+      <c r="E201">
+        <v>-22293</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202">
+        <v>29163</v>
+      </c>
+      <c r="C202">
+        <v>5357</v>
+      </c>
+      <c r="D202">
+        <v>6331</v>
+      </c>
+      <c r="E202">
+        <v>-21491</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203">
+        <v>29163</v>
+      </c>
+      <c r="C203">
+        <v>5357</v>
+      </c>
+      <c r="D203">
+        <v>6331</v>
+      </c>
+      <c r="E203">
+        <v>-24383</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204">
+        <v>29163</v>
+      </c>
+      <c r="C204">
+        <v>5357</v>
+      </c>
+      <c r="D204">
+        <v>6331</v>
+      </c>
+      <c r="E204">
+        <v>-29271</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205">
+        <v>29163</v>
+      </c>
+      <c r="C205">
+        <v>5357</v>
+      </c>
+      <c r="D205">
+        <v>6331</v>
+      </c>
+      <c r="E205">
+        <v>-29014</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206">
+        <v>29163</v>
+      </c>
+      <c r="C206">
+        <v>5357</v>
+      </c>
+      <c r="D206">
+        <v>6331</v>
+      </c>
+      <c r="E206">
+        <v>-29758</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207">
+        <v>29163</v>
+      </c>
+      <c r="C207">
+        <v>5357</v>
+      </c>
+      <c r="D207">
+        <v>6331</v>
+      </c>
+      <c r="E207">
+        <v>-30651</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208">
+        <v>29163</v>
+      </c>
+      <c r="C208">
+        <v>5357</v>
+      </c>
+      <c r="D208">
+        <v>6331</v>
+      </c>
+      <c r="E208">
+        <v>-31696</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209">
+        <v>29163</v>
+      </c>
+      <c r="C209">
+        <v>5357</v>
+      </c>
+      <c r="D209">
+        <v>6331</v>
+      </c>
+      <c r="E209">
+        <v>-32392</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
